--- a/output/frequent_words/xls/all_websites_frequent_words_dict_translated_de.xlsx
+++ b/output/frequent_words/xls/all_websites_frequent_words_dict_translated_de.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,251 +444,3710 @@
           <t>Most Frequent Words</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.xxx.at/</t>
+          <t>https://www.100-dakar.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
+          <t>Cookies; Dakar</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.xxx.at/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
+          <t>https://www.11familiengeschichten.at</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.xxx.at/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
+          <t>https://www.1n0ut.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.xxx.at/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
+          <t>https://www.aguadestund.at</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.xxx.at/</t>
+          <t>https://www.akku-steyr.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
+          <t>Akku; Unkontaktiert</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.alteschule-gutau.at</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Schule; Tanzen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>54</v>
-      </c>
+          <t>https://www.aminoreamore.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/</t>
+          <t>https://www.andreaskurz.net</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>52</v>
+          <t>Andreas; Kurz</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/</t>
+          <t>https://www.andreaszingerle.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
+          <t>Andreas; Zingerle</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/</t>
+          <t>https://www.anja.west.servus.at</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>47</v>
+          <t>Sprachen; Einrichtung</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/</t>
+          <t>https://www.anna-fiala.at</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>41</v>
+          <t>Hofwerkstatt; Verwaltung</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anna; Kraher</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.zzz.at/</t>
+          <t>https://www.antonraidel.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
+          <t>Anton; Raidel</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.zzz.at/</t>
+          <t>https://www.apephonie.org</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
+          <t>Arbeiten; Website</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.zzz.at/</t>
+          <t>https://www.apileofghosts.com</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
+          <t>Film; Festival</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.zzz.at/</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
+          <t>https://www.appoe.at</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.zzz.at/</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>7</v>
-      </c>
+          <t>https://www.apt.servus.at</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.archiv.fiftitu.at</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.archivia.at</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>April; Archiv</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.argemarie.at</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ausstellung; Erde</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.arttraffic-strand.net</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eine; Verkehr</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.audiobomber.at</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.augumohr.servus.at</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.aussitzen.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.babelingo.net</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.backlab.at</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Demnächst; Ereignissekeine</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.backwood.at</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sat; Mai</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.base.at</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lächelnd; Buddhas</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.basicray.org</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.bb15.at</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ausstellung; Eine</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.beauty.servus.at</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.benjaminwahl.at</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cookies; Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.beschallungsfrei.at</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hörstadt; Gewerkschaft</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.bettywimmer.net</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Betty; Wimmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.bibnet.servus.at</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.bildstrom.at</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.birgit-wagner.net</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kommend</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.bogendorfer.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.boxafilm.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Film; Siehe</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.buergerinnenrat.at</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pflegearbeit; Bürgerinnenrat</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.bunostik.org</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.butoh.at</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.cannedfit.net</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.cba.fro.at</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.christineeder.servus.at</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.chschoe.net</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.cinemanext.at</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Cinema; Weiter</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.ciras2008.servus.at</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.cloud.servus.at</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.club.stwst.at</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.collective-ika.org</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Gestaltung; Ika</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.core.servus.at</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.corpushomini.info</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Film; Korpus</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.corridorsounds.org</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.crowdundruam.at</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Gerda; Reisinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.dakarartsfestival.net</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.dana-rausch.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.dan-tien.at</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dan; Tien</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.dasfundus.net</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Förderungen; Jahre</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.dasholzhaus.at</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Cookies; Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.das-kollektiv.at</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>März; Kollektiv</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.dasparkhotel.net</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Donau; Hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.daumenkino.at</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.davidebevilacqua.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Forschung; Juli</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.dbadm2.servus.at</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.deathpositiv.at</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sargbar; Tod</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.delta1.at</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.derieg.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.derkaktus.at</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kaktus; Karikatur</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.derschueler.at</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Schule; Mehr</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.dh5.space</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sitzung</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.diebresche.org</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Mehr; Coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.diequote.at</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Cookies; Keks</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.die-schule.at</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Schule; Linz</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.diesenreiter.at</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Euro; Mio</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.dilemmarecords.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Jeffery; Richie</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.diyrepaircafe.ig-demokratie.at</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.donau-danube.eu</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Brückenschlag; Menschen</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.donautics.stwst.at</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.dorninger.servus.at</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.doublehappiness.at</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Film; Filmfestival</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.downinthehole.org</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Website; Wartung</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.drdidi.at</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Didi; Zimmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.drehorgelkabarett.at</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cookies; Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.dreiundachtzig.servus.at</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.dunkelkammer.net</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Que</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.eipcp.net</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Art; Transversal</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.eliot.at</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Arbeit; Übersetzung</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.eliot-works.at</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.ellaraidel.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Ella; Lesen sie</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.emu.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.erichklinger.at</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.esslinger.servus.at</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.etextile-summercamp.org</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.extrabunt.at</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Familien</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.faces-l.net</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Art; Gesichter</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.fauxpas.at</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.faxen-collective.net</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Faxe; Künstler</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.fdr.at</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Rufen sie  an.; Öffnen sie</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.feed-the-idiots.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.felerlos.at</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Konzept; Schreiben</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.feminismus-krawall.at</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>März; Feminismus</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.fiftitu.at</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>März; Arbeiten</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.filmriss.at</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Filmriss; Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.finaesslinger.at</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.finopoly.at</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Live; Linz</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.forum.pmk.or.at</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.frauenkultur.at</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Kultur; Kunst</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.fraumayr.at</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Gestaltung; Projektumfang</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.frautomani.at</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Cookies; Startseite</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.freie-medien.at</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Lesen sie; Linz</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.freier-rundfunk.at</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.freizeitundkommunikation.at</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Linz; Tel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.frf.at</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Folge; Spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.fro.at</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Uhr; Frozine</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.fruehling2012.servus.at</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.fuckhead.at</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Essen sie; Immer</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.gagosoft.net</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Buscitroën</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.gegenpolizeigewalt.servus.at</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.geraldkogler.com</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Web; Einrichtung</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.gfa.or.at</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Damals; Fragen</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.gg.servus.at</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.gis-orchestra.at</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.graztermine.at</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Trio; Verwaltung</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.grenzland-zeitgenossenschaft.org</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.grgr.at</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Gregor; Arbeit</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.guglmugl.net</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.habitat.servus.at</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.hangover9e.servus.at</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.hauntedspaces.net</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Film; Gespenstische</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.heartofnoise.at</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Noise; Herz</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.helmutneugebauer.at</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Update; Helmut</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.hiroshima.at</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.hoerspuren.at</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Audioguides; Projekt</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.hoerstadt.at</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Akustik; Arbeit</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.hr-ctrl.or.at</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Mitbestimmungskultur; Verein</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rocky; Seite</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.ig-demokratie.at</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Demokratie; Prozesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.igkultur.at</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Kultur; Praxis</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.ingorandolf.info</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nadel; Urban</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.ingridschiller.at</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Cookies; Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.innenraumlavinia.at</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lavinia; Innenraum</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.insitu-linz09.at</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Essays</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.internationalerfrauentag.servus.at</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.interregnum.live</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Kultur; Lawtonwesterland</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.interstellarrecords.at</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Interstellar; Aufzeichnungen</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.isadiessl.at</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.isation.org</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Irrationalisierung; Irrationalisierungsinstitut</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.joreg.ath.cx</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.kairus.org</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Art; Benutzer</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.kapu.or.at</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Konzert; Stream</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.karawane.servus.at</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.kellerabteil.org</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Plattform; Unternehmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.kmptt.servus.at</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.kobakant.at</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.kohlberger.net</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.kolibri-schule.at</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Kinder; Lernen</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.konsortium.at</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Konsortiumnetzkultur; Kultur</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.kri.servus.at</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.kubriel.servus.at</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.kuenstlerinnen.at</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Rocky; Seite</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.kuk-linz.at</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.kulturviertelwochen.at</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Kulturviertelwochen; Projekt</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.kunstkanal.org</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.kunstraum.at</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Commit; Kunstraum</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.kunzwana.net</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Keith; Sammlung</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.kupf.at</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Kupf; Kunst</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.kuva.at</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Sprichcode; Bild aus</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.landderfreienmedien.at</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.landgaenge.eu</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Freistadt; Kirchen</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.lauthals.org</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Laut; Musik</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.leodressel.net</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Leo; Arbeiten</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.linzfmr.at</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Linz; Fmr</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.linzlinks.servus.at</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.liqua.net</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.lisawagner.at</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.lists.servus.at</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.livingwithplanb.derieg.com</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.lllk.at</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Anna; Katharina</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.lotta-gaffa.at</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Ghert; Mehr</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.lottaschreibt.at</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.luckeneder-art.at</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Rocky; Seite</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.luftspur.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.lugl.at</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Linux; Lugl</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.lukeanddom.org</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.lustwerkstatt.at</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sexarbeit; Weiterlesen</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.madeby.at</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.magdalenareiter.at</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.maiz.at</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Migrantinnen; Mais</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.medea.servus.at</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.memphismemph.is</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Donaulã¤nde; Wir folgen</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.ment.org</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.merker.tv</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Marker tv; Verffentlichung</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.michaelabaum.eu</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.migrazine.at</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bild; Arbeit</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.milchblut.at</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.mindbending.us</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.mmm-k.org</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.monitoring.servus.at</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://www.moodle.das-kollektiv.at</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.moodle.maiz.at</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.mrtg.servus.at</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.mulatschag.at</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.mulonga.linz.funkfeuer.at</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.mute.audio</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Inhalt; Werkzeuge</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.muzak.timesup.org</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://www.mzbaltazarslaboratory.org</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Liebe; Workshop</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.n2n.servus.at</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://www.ncd.servus.at</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.negentropy-sport.net</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.nerding.at</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Nerding; Satomi</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.newsbase.at</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.nichtstun.org</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Tun; Nichts</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://www.nichtwaehler.org</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.nomadenetappe.net</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.notton.at</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.nurdietoten.at</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Juni; Toten</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.off.servus.at</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.ogg.at</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Audio; Muse</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.okabre.com</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Album; Neu</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.otre.at</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Otto; Unsichtbaren</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.ottosaxinger.at</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Cookies; Otto</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.palmfiction.net</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Palme; August</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.patrick.derieg.com</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.paulovsky.org</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Fotograf; Sarah</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.peligro.at</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Cookies; Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.pena-flamenca.at</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Flamenca; Flamenco</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.peterandrosch.at</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Androsch; Peter</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.petra.servus.at</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.pflueckt.at</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Linz; Pflückt</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.phonography.art</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.photosalonhelga.com</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Kasino; Kasino</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.physicalnarration.org</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.piramidops.at</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Digitalisierung; Integrationsberatung digimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.platform-socialism.org</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Seite; Wie</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.playground224.servus.at</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.pmk.or.at</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>...gehostet; Pmk</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.poelzlotto.at</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.potatopublishing.at</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.prequalsteps.maiz.at</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.programmkinowels.at</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Mehr; Infos</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.public.enemy.org</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.publications.servus.at</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.qlf-enterprises.com</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.q-testsite.com</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.quasikunst.at</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Mind; Tief</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.queens-of-sound.com</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.qujochoe.org</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Linz; Uhr</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.rabbitcontrol.cc</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Kontrolle; Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.radical-openness.org</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Art; Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Radio; Speicherung</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.recordsdacubra.com</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.regional-express.org</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Rocky; Seite</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.reinhardreisenzahn.com</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Cookies; Reinhard</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.remember-bruckner.com</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Cmapprox; Wagen</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.remorauscher.at</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Salzburg; Theater</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.republicart.net</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Inhalt; Webjournal</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.research.radical-openness.org</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.retrogoldmine.com</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Film; Siehe</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.ronit.at</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.rotespuren.at</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>April; Antworten</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.rtfm.computer</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.rudolfhabringer.at</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Uhr; Leben</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.sabrina.servus.at</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://www.sandleitendatenbank.at</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.sandrabirklbauer.com</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Sandra; Birklbauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.schager.servus.at</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.schneiderin.at</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.schuledesungehorsams.at</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://www.schulradiotag.at</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Radio; Schülerinnen</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.sdmk.at</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Beim; Teil</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.sebastiansix.net</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Doppelter; Sechs</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.selbstlaut.net</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Gesprochen; Selbstlaut</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.selfdefenceit.maiz.at</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.sensenmaehen.at</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.sensorchestra.com</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Bedienungsanleitung; Sensorchestra</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.shanefinan.org</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Projekt; Leitrim</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://www.shiatsu-stef.at</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Fischer; Stef</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.sinnvolltaetigsein.at</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.skodone.at</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Cookies; Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.sofiabraga.com</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Irdisch; Überleben</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.sombrero.at</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Bruner; Buchgestaltung</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.sosmitmensch-bgld.at</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Mitmensch; Sos</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.soundinglinz.at</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.soundsource.servus.at</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.spaetzuenderin.servus.at</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.stats.servus.at</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.stefaner-schmid.net</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Christian; Stefanerschmid</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.steingeschichten.at</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Linz; Steingeschichten</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.steinreich.servus.at</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.stephanroiss.at</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Lauter; Stephan</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.stopshop.at</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Irratiopharm; Prozent</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.stopspot.servus.at</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.streettraining.org</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Straße; Wochen</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.stuwer.info</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Stuwerviertel; Sieht</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://www.stwst.at</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Medien; Stadtwerkstatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.stwst-gw.servus.at</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.subcute.servus.at</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.sunobwegeser.net</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Kommentare; Veröffentlicht</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.syntaxmirror.at</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.tabeacray.com</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Leinwand; Februar</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.tamaratrackt.at</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Salon; Limusin</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.tauschkreis-freiwald.org</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Tauschkreis; Zeitgenossenschaft</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://www.texta.at</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Listen; Grotesk</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://www.theaternacht.at</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Theater; Theaternacht</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.theaternyx.at</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Theaternyx; Wien</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://www.theater-tamtam.org</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Speicherung; Theater</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.themagdalenaproject.org</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Magdalena; September</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://www.thenextlayer.org</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://www.thomahawk.tv</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://www.thomasbaum.at</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Böse; Hoffnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://www.thusandhence.com</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Dietrich; Kai</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://www.timesup.org</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Zeit; Bringt</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://www.tinaleisch.at</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>November; Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://www.todableiter.servus.at</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://www.totalsilence.de</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Musik; Neu</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://www.transversal.wwb.cc</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.travolta.at</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Kunstbüro; Travolta</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://www.triviale.at</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Triviale; Kunst</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://www.tschneid.servus.at</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Video; Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://www.tschoerda.at</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Dezember; Fuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.umbrella-march-linz.at</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.unibrennt.at</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.unkraut-comics.at</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Februar; März</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.unruly-thoughts.com</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Feministisch; Schwarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.unsustainabil.it</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://www.valina.at</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Valina; Band</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.velodrom-linz.at</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Linz; Velodrom</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://www.verein-ent.at</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Ent; Verein</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.verein-strandgut.at</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.verenamayrhofer.at</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Mayrhofer; Verena</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://www.versorgerin.stwst.at</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.villanorth.at</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://www.vladislavnazarov.com</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.vonunten.at</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Bürgerinnenrat; Menschen</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.vulgaripeace.com</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://www.waldegg116.at</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Wirtshaus; Werkstättenhaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.walterschalter.at</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.wassermair.net</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Weblog; …weiterlesen</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www.wasserscheide.servus.at</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www.waytoshambala.org</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Tag; Würde</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.webmail.servus.at</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.webstats.servus.at</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www.wegstrecken.at</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Projekte; Radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.werkenmitwiderstand.org</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www.whysociety.org</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.wiki.physicalnarration.org</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www.willworkforfood.servus.at</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.wirtshauswissenschaften.at</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Politik; Reparatur</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.wohnzimmergalerie.net</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://www.wolfgang-muellegger.at</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www.wolkenhaende.at</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Gong; Kleine</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://www.workstation.or.at</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Arbeitsplatz; Jahre</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.xxero.servus.at</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www.zapalotta.org</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www.zeitgemeinschaft.at</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Zeitgemeinschaft; Strudengau</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www.zeitgenossenschaft.at</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www.zeugfaerberei.at</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Experimentalwerkstatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.zogholy.net</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Andre; Zogholy</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://www.zumutbar.at</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Zucker; Vorteile</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
